--- a/pred_ohlcv/54/2019-10-17 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 XEM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C2" t="n">
         <v>48.9</v>
@@ -417,15 +422,18 @@
         <v>48.9</v>
       </c>
       <c r="E2" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F2" t="n">
-        <v>82400</v>
+        <v>199077.9761</v>
       </c>
       <c r="G2" t="n">
-        <v>47.09999999999996</v>
+        <v>47.03166666666663</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>48.9</v>
       </c>
       <c r="C3" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="D3" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="E3" t="n">
         <v>48.9</v>
       </c>
       <c r="F3" t="n">
-        <v>187194.0612</v>
+        <v>82400</v>
       </c>
       <c r="G3" t="n">
-        <v>47.16499999999996</v>
+        <v>47.09999999999996</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C4" t="n">
         <v>49.2</v>
       </c>
-      <c r="C4" t="n">
-        <v>49.7</v>
-      </c>
       <c r="D4" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F4" t="n">
-        <v>364207.9587</v>
+        <v>187194.0612</v>
       </c>
       <c r="G4" t="n">
-        <v>47.24166666666662</v>
+        <v>47.16499999999996</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="C5" t="n">
         <v>49.7</v>
       </c>
       <c r="D5" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E5" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>25986.4775</v>
+        <v>364207.9587</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31666666666662</v>
+        <v>47.24166666666662</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,25 +529,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C6" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
       </c>
       <c r="E6" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1493.2592</v>
+        <v>25986.4775</v>
       </c>
       <c r="G6" t="n">
-        <v>47.38999999999996</v>
+        <v>47.31666666666662</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +558,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C7" t="n">
         <v>49.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>49.9</v>
-      </c>
       <c r="D7" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E7" t="n">
         <v>49.6</v>
       </c>
       <c r="F7" t="n">
-        <v>26918.2297</v>
+        <v>1493.2592</v>
       </c>
       <c r="G7" t="n">
-        <v>47.46666666666662</v>
+        <v>47.38999999999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>49.9</v>
       </c>
-      <c r="C8" t="n">
-        <v>49.8</v>
-      </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="F8" t="n">
-        <v>56615.5402</v>
+        <v>26918.2297</v>
       </c>
       <c r="G8" t="n">
-        <v>47.54333333333329</v>
+        <v>47.46666666666662</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F9" t="n">
-        <v>37157.5328</v>
+        <v>56615.5402</v>
       </c>
       <c r="G9" t="n">
-        <v>47.6183333333333</v>
+        <v>47.54333333333329</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>49.9</v>
       </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E10" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F10" t="n">
-        <v>68891.2</v>
+        <v>37157.5328</v>
       </c>
       <c r="G10" t="n">
-        <v>47.69666666666662</v>
+        <v>47.6183333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>49.9</v>
       </c>
       <c r="F11" t="n">
-        <v>81682.81916349</v>
+        <v>68891.2</v>
       </c>
       <c r="G11" t="n">
-        <v>47.76999999999996</v>
+        <v>47.69666666666662</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C12" t="n">
         <v>49.9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>50.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50.5</v>
       </c>
       <c r="E12" t="n">
         <v>49.9</v>
       </c>
       <c r="F12" t="n">
-        <v>67343.68650793</v>
+        <v>81682.81916349</v>
       </c>
       <c r="G12" t="n">
-        <v>47.85166666666662</v>
+        <v>47.76999999999996</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C13" t="n">
         <v>50.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50.5</v>
       </c>
       <c r="D13" t="n">
         <v>50.5</v>
       </c>
       <c r="E13" t="n">
-        <v>50.4</v>
+        <v>49.9</v>
       </c>
       <c r="F13" t="n">
-        <v>12100</v>
+        <v>67343.68650793</v>
       </c>
       <c r="G13" t="n">
-        <v>47.93333333333329</v>
+        <v>47.85166666666662</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C14" t="n">
         <v>50.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>50.6</v>
-      </c>
       <c r="D14" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="E14" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F14" t="n">
-        <v>36667.65372858</v>
+        <v>12100</v>
       </c>
       <c r="G14" t="n">
-        <v>48.00666666666663</v>
+        <v>47.93333333333329</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="C15" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E15" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2003.0243</v>
+        <v>36667.65372858</v>
       </c>
       <c r="G15" t="n">
-        <v>48.08499999999997</v>
+        <v>48.00666666666663</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C16" t="n">
         <v>50.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>50.5</v>
-      </c>
       <c r="D16" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E16" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="F16" t="n">
-        <v>23140.1179</v>
+        <v>2003.0243</v>
       </c>
       <c r="G16" t="n">
-        <v>48.16166666666663</v>
+        <v>48.08499999999997</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E17" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="F17" t="n">
-        <v>112358.7698</v>
+        <v>23140.1179</v>
       </c>
       <c r="G17" t="n">
-        <v>48.2383333333333</v>
+        <v>48.16166666666663</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C18" t="n">
         <v>50.7</v>
       </c>
-      <c r="C18" t="n">
-        <v>50.8</v>
-      </c>
       <c r="D18" t="n">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="E18" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="F18" t="n">
-        <v>68629.94010000001</v>
+        <v>112358.7698</v>
       </c>
       <c r="G18" t="n">
-        <v>48.31499999999997</v>
+        <v>48.2383333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>50.7</v>
       </c>
       <c r="F19" t="n">
-        <v>212743.834</v>
+        <v>68629.94010000001</v>
       </c>
       <c r="G19" t="n">
-        <v>48.39166666666664</v>
+        <v>48.31499999999997</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="C20" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="D20" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="E20" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="F20" t="n">
-        <v>135033.27360844</v>
+        <v>212743.834</v>
       </c>
       <c r="G20" t="n">
-        <v>48.46166666666665</v>
+        <v>48.39166666666664</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50.9</v>
+        <v>50.4</v>
       </c>
       <c r="C21" t="n">
-        <v>50.9</v>
+        <v>50.4</v>
       </c>
       <c r="D21" t="n">
         <v>50.9</v>
@@ -914,12 +976,15 @@
         <v>50.4</v>
       </c>
       <c r="F21" t="n">
-        <v>90808.7886</v>
+        <v>135033.27360844</v>
       </c>
       <c r="G21" t="n">
-        <v>48.53999999999998</v>
+        <v>48.46166666666665</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>50.9</v>
       </c>
       <c r="C22" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E22" t="n">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
       <c r="F22" t="n">
-        <v>60971.5704</v>
+        <v>90808.7886</v>
       </c>
       <c r="G22" t="n">
-        <v>48.61166666666665</v>
+        <v>48.53999999999998</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C23" t="n">
         <v>50.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>50.5</v>
       </c>
       <c r="D23" t="n">
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="F23" t="n">
-        <v>286322.7005398</v>
+        <v>60971.5704</v>
       </c>
       <c r="G23" t="n">
-        <v>48.67999999999998</v>
+        <v>48.61166666666665</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="C24" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="D24" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>50.3</v>
       </c>
       <c r="F24" t="n">
-        <v>68866.67449999999</v>
+        <v>286322.7005398</v>
       </c>
       <c r="G24" t="n">
-        <v>48.75333333333332</v>
+        <v>48.67999999999998</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>50.9</v>
       </c>
       <c r="C25" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E25" t="n">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="F25" t="n">
-        <v>250165.3934</v>
+        <v>68866.67449999999</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81833333333331</v>
+        <v>48.75333333333332</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C26" t="n">
         <v>50.6</v>
       </c>
       <c r="D26" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F26" t="n">
-        <v>17571.1705</v>
+        <v>250165.3934</v>
       </c>
       <c r="G26" t="n">
-        <v>48.88333333333332</v>
+        <v>48.81833333333331</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1141,7 @@
         <v>50.8</v>
       </c>
       <c r="C27" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="D27" t="n">
         <v>50.9</v>
@@ -1070,12 +1150,15 @@
         <v>50.6</v>
       </c>
       <c r="F27" t="n">
-        <v>13568.3147</v>
+        <v>17571.1705</v>
       </c>
       <c r="G27" t="n">
-        <v>48.94999999999998</v>
+        <v>48.88333333333332</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>50.8</v>
       </c>
       <c r="C28" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="D28" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E28" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="F28" t="n">
-        <v>52041.2328</v>
+        <v>13568.3147</v>
       </c>
       <c r="G28" t="n">
-        <v>49.00833333333332</v>
+        <v>48.94999999999998</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,10 +1196,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C29" t="n">
         <v>50.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>50.8</v>
       </c>
       <c r="D29" t="n">
         <v>50.8</v>
@@ -1122,12 +1208,15 @@
         <v>50.5</v>
       </c>
       <c r="F29" t="n">
-        <v>17864.6181</v>
+        <v>52041.2328</v>
       </c>
       <c r="G29" t="n">
-        <v>49.06166666666665</v>
+        <v>49.00833333333332</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C30" t="n">
         <v>50.8</v>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="E30" t="n">
         <v>50.5</v>
       </c>
       <c r="F30" t="n">
-        <v>131176.4234</v>
+        <v>17864.6181</v>
       </c>
       <c r="G30" t="n">
-        <v>49.12166666666666</v>
+        <v>49.06166666666665</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="C31" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D31" t="n">
         <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="F31" t="n">
-        <v>60852.0336</v>
+        <v>131176.4234</v>
       </c>
       <c r="G31" t="n">
-        <v>49.17666666666666</v>
+        <v>49.12166666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="C32" t="n">
         <v>50.9</v>
       </c>
       <c r="D32" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E32" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F32" t="n">
-        <v>236480.3552</v>
+        <v>60852.0336</v>
       </c>
       <c r="G32" t="n">
-        <v>49.23833333333334</v>
+        <v>49.17666666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C33" t="n">
         <v>50.9</v>
@@ -1226,12 +1324,15 @@
         <v>50.5</v>
       </c>
       <c r="F33" t="n">
-        <v>32869.0743</v>
+        <v>236480.3552</v>
       </c>
       <c r="G33" t="n">
-        <v>49.3</v>
+        <v>49.23833333333334</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C34" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>50.8</v>
       </c>
       <c r="D34" t="n">
         <v>50.9</v>
       </c>
       <c r="E34" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="F34" t="n">
-        <v>9945.7996</v>
+        <v>32869.0743</v>
       </c>
       <c r="G34" t="n">
-        <v>49.35833333333334</v>
+        <v>49.3</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,10 +1370,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C35" t="n">
         <v>50.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>50.9</v>
       </c>
       <c r="D35" t="n">
         <v>50.9</v>
@@ -1278,12 +1382,15 @@
         <v>50.8</v>
       </c>
       <c r="F35" t="n">
-        <v>22427.0137</v>
+        <v>9945.7996</v>
       </c>
       <c r="G35" t="n">
-        <v>49.41500000000001</v>
+        <v>49.35833333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C36" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>50.6</v>
       </c>
       <c r="D36" t="n">
         <v>50.9</v>
       </c>
       <c r="E36" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="F36" t="n">
-        <v>27955</v>
+        <v>22427.0137</v>
       </c>
       <c r="G36" t="n">
-        <v>49.46666666666668</v>
+        <v>49.41500000000001</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="C37" t="n">
         <v>50.6</v>
       </c>
       <c r="D37" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="E37" t="n">
         <v>50.6</v>
       </c>
       <c r="F37" t="n">
-        <v>519.1347</v>
+        <v>27955</v>
       </c>
       <c r="G37" t="n">
-        <v>49.52333333333334</v>
+        <v>49.46666666666668</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="C38" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="D38" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="E38" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="F38" t="n">
-        <v>72027.11010000001</v>
+        <v>519.1347</v>
       </c>
       <c r="G38" t="n">
-        <v>49.58000000000001</v>
+        <v>49.52333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="C39" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D39" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E39" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F39" t="n">
-        <v>110378.7867</v>
+        <v>72027.11010000001</v>
       </c>
       <c r="G39" t="n">
-        <v>49.63166666666667</v>
+        <v>49.58000000000001</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C40" t="n">
         <v>50.7</v>
       </c>
-      <c r="C40" t="n">
-        <v>50.6</v>
-      </c>
       <c r="D40" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="E40" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F40" t="n">
-        <v>91256.0227</v>
+        <v>110378.7867</v>
       </c>
       <c r="G40" t="n">
-        <v>49.68000000000001</v>
+        <v>49.63166666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>50.6</v>
       </c>
-      <c r="C41" t="n">
-        <v>50.5</v>
-      </c>
       <c r="D41" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="E41" t="n">
         <v>50.6</v>
       </c>
-      <c r="E41" t="n">
-        <v>50.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>27657.1562</v>
+        <v>91256.0227</v>
       </c>
       <c r="G41" t="n">
-        <v>49.73000000000001</v>
+        <v>49.68000000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>50.5</v>
       </c>
       <c r="F42" t="n">
-        <v>57939.0762</v>
+        <v>27657.1562</v>
       </c>
       <c r="G42" t="n">
-        <v>49.77666666666668</v>
+        <v>49.73000000000001</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9</v>
+        <v>50.5</v>
       </c>
       <c r="F43" t="n">
-        <v>15751.323</v>
+        <v>57939.0762</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81333333333335</v>
+        <v>49.77666666666668</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="C44" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="E44" t="n">
         <v>49.9</v>
       </c>
       <c r="F44" t="n">
-        <v>15496.418</v>
+        <v>15751.323</v>
       </c>
       <c r="G44" t="n">
-        <v>49.84833333333334</v>
+        <v>49.81333333333335</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>49.9</v>
       </c>
       <c r="C45" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="D45" t="n">
         <v>49.9</v>
       </c>
       <c r="E45" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="F45" t="n">
-        <v>4849.3594</v>
+        <v>15496.418</v>
       </c>
       <c r="G45" t="n">
-        <v>49.87333333333334</v>
+        <v>49.84833333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C46" t="n">
         <v>49.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>49.5</v>
-      </c>
       <c r="D46" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E46" t="n">
-        <v>48.8</v>
+        <v>49.3</v>
       </c>
       <c r="F46" t="n">
-        <v>98936.8805</v>
+        <v>4849.3594</v>
       </c>
       <c r="G46" t="n">
-        <v>49.90166666666667</v>
+        <v>49.87333333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="C47" t="n">
-        <v>48.8</v>
+        <v>49.5</v>
       </c>
       <c r="D47" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E47" t="n">
         <v>48.8</v>
       </c>
       <c r="F47" t="n">
-        <v>79939.4927</v>
+        <v>98936.8805</v>
       </c>
       <c r="G47" t="n">
-        <v>49.91500000000001</v>
+        <v>49.90166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="C48" t="n">
         <v>48.8</v>
       </c>
       <c r="D48" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E48" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F48" t="n">
-        <v>19722.9684</v>
+        <v>79939.4927</v>
       </c>
       <c r="G48" t="n">
-        <v>49.92500000000002</v>
+        <v>49.91500000000001</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C49" t="n">
         <v>48.8</v>
       </c>
-      <c r="C49" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D49" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="E49" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F49" t="n">
-        <v>10575.5041</v>
+        <v>19722.9684</v>
       </c>
       <c r="G49" t="n">
-        <v>49.93666666666668</v>
+        <v>49.92500000000002</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>48.8</v>
       </c>
       <c r="C50" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D50" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="E50" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F50" t="n">
-        <v>31006.8304</v>
+        <v>10575.5041</v>
       </c>
       <c r="G50" t="n">
-        <v>49.94500000000001</v>
+        <v>49.93666666666668</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C51" t="n">
         <v>49</v>
@@ -1691,15 +1843,18 @@
         <v>49</v>
       </c>
       <c r="E51" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="F51" t="n">
-        <v>6579.9999</v>
+        <v>31006.8304</v>
       </c>
       <c r="G51" t="n">
-        <v>49.95166666666668</v>
+        <v>49.94500000000001</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C52" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E52" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F52" t="n">
-        <v>10051.5983</v>
+        <v>6579.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>49.96000000000002</v>
+        <v>49.95166666666668</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="C53" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="D53" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="E53" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1194.6079</v>
+        <v>10051.5983</v>
       </c>
       <c r="G53" t="n">
-        <v>49.96500000000002</v>
+        <v>49.96000000000002</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>48.9</v>
       </c>
       <c r="C54" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D54" t="n">
         <v>48.9</v>
       </c>
       <c r="E54" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F54" t="n">
-        <v>85899.7613</v>
+        <v>1194.6079</v>
       </c>
       <c r="G54" t="n">
-        <v>49.97166666666669</v>
+        <v>49.96500000000002</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C55" t="n">
         <v>48.8</v>
       </c>
-      <c r="C55" t="n">
-        <v>49</v>
-      </c>
       <c r="D55" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E55" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="F55" t="n">
-        <v>27600</v>
+        <v>85899.7613</v>
       </c>
       <c r="G55" t="n">
-        <v>49.98000000000002</v>
+        <v>49.97166666666669</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C56" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D56" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E56" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F56" t="n">
-        <v>21068.1819</v>
+        <v>27600</v>
       </c>
       <c r="G56" t="n">
-        <v>49.98666666666669</v>
+        <v>49.98000000000002</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>48.9</v>
       </c>
       <c r="F57" t="n">
-        <v>1928.1779</v>
+        <v>21068.1819</v>
       </c>
       <c r="G57" t="n">
-        <v>49.99166666666669</v>
+        <v>49.98666666666669</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>48.9</v>
       </c>
       <c r="F58" t="n">
-        <v>19.7546</v>
+        <v>1928.1779</v>
       </c>
       <c r="G58" t="n">
-        <v>49.99666666666669</v>
+        <v>49.99166666666669</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C59" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="D59" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E59" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="F59" t="n">
-        <v>12999.8769</v>
+        <v>19.7546</v>
       </c>
       <c r="G59" t="n">
-        <v>49.99500000000003</v>
+        <v>49.99666666666669</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="C60" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="E60" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="F60" t="n">
-        <v>38980.3738</v>
+        <v>12999.8769</v>
       </c>
       <c r="G60" t="n">
-        <v>50.00000000000003</v>
+        <v>49.99500000000003</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="C61" t="n">
         <v>49</v>
@@ -1951,15 +2133,18 @@
         <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="F61" t="n">
-        <v>31638</v>
+        <v>38980.3738</v>
       </c>
       <c r="G61" t="n">
-        <v>50.00166666666669</v>
+        <v>50.00000000000003</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,7 +2153,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="C62" t="n">
         <v>49</v>
@@ -1977,15 +2162,18 @@
         <v>49</v>
       </c>
       <c r="E62" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="F62" t="n">
-        <v>9893.05017142</v>
+        <v>31638</v>
       </c>
       <c r="G62" t="n">
-        <v>50.00333333333336</v>
+        <v>50.00166666666669</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C63" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="E63" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F63" t="n">
-        <v>20132.4798</v>
+        <v>9893.05017142</v>
       </c>
       <c r="G63" t="n">
-        <v>49.9916666666667</v>
+        <v>50.00333333333336</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C64" t="n">
         <v>48.5</v>
       </c>
-      <c r="C64" t="n">
-        <v>48.1</v>
-      </c>
       <c r="D64" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E64" t="n">
         <v>48.5</v>
       </c>
-      <c r="E64" t="n">
-        <v>48.1</v>
-      </c>
       <c r="F64" t="n">
-        <v>50244.4568</v>
+        <v>20132.4798</v>
       </c>
       <c r="G64" t="n">
-        <v>49.96500000000003</v>
+        <v>49.9916666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C65" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D65" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E65" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F65" t="n">
-        <v>594.109</v>
+        <v>50244.4568</v>
       </c>
       <c r="G65" t="n">
-        <v>49.94166666666671</v>
+        <v>49.96500000000003</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C66" t="n">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="D66" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E66" t="n">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="F66" t="n">
-        <v>14125.2833</v>
+        <v>594.109</v>
       </c>
       <c r="G66" t="n">
-        <v>49.91333333333338</v>
+        <v>49.94166666666671</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="C67" t="n">
         <v>47.9</v>
       </c>
       <c r="D67" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E67" t="n">
         <v>47.9</v>
       </c>
-      <c r="E67" t="n">
-        <v>47.8</v>
-      </c>
       <c r="F67" t="n">
-        <v>46568.7452</v>
+        <v>14125.2833</v>
       </c>
       <c r="G67" t="n">
-        <v>49.88000000000004</v>
+        <v>49.91333333333338</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2133,15 +2336,18 @@
         <v>47.9</v>
       </c>
       <c r="E68" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F68" t="n">
-        <v>40.3966</v>
+        <v>46568.7452</v>
       </c>
       <c r="G68" t="n">
-        <v>49.84833333333337</v>
+        <v>49.88000000000004</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="C69" t="n">
         <v>47.9</v>
@@ -2159,15 +2365,18 @@
         <v>47.9</v>
       </c>
       <c r="E69" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F69" t="n">
-        <v>8637.477800000001</v>
+        <v>40.3966</v>
       </c>
       <c r="G69" t="n">
-        <v>49.81500000000004</v>
+        <v>49.84833333333337</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C70" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="D70" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="E70" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2041.1149</v>
+        <v>8637.477800000001</v>
       </c>
       <c r="G70" t="n">
-        <v>49.78333333333337</v>
+        <v>49.81500000000004</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>48.1</v>
       </c>
       <c r="F71" t="n">
-        <v>12779.9533</v>
+        <v>2041.1149</v>
       </c>
       <c r="G71" t="n">
-        <v>49.75333333333337</v>
+        <v>49.78333333333337</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>48.1</v>
       </c>
       <c r="C72" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D72" t="n">
         <v>48.1</v>
       </c>
       <c r="E72" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F72" t="n">
-        <v>8514.3631</v>
+        <v>12779.9533</v>
       </c>
       <c r="G72" t="n">
-        <v>49.71333333333337</v>
+        <v>49.75333333333337</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>48.1</v>
       </c>
       <c r="C73" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
         <v>48.1</v>
       </c>
       <c r="E73" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F73" t="n">
-        <v>40017.7512</v>
+        <v>8514.3631</v>
       </c>
       <c r="G73" t="n">
-        <v>49.67333333333337</v>
+        <v>49.71333333333337</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C74" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="D74" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="E74" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F74" t="n">
-        <v>82956.88009999999</v>
+        <v>40017.7512</v>
       </c>
       <c r="G74" t="n">
-        <v>49.6366666666667</v>
+        <v>49.67333333333337</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>48.2</v>
       </c>
       <c r="C75" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="D75" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E75" t="n">
         <v>48.2</v>
       </c>
-      <c r="E75" t="n">
-        <v>48</v>
-      </c>
       <c r="F75" t="n">
-        <v>7359.2558</v>
+        <v>82956.88009999999</v>
       </c>
       <c r="G75" t="n">
-        <v>49.5966666666667</v>
+        <v>49.6366666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C76" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E76" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F76" t="n">
-        <v>77314.5912</v>
+        <v>7359.2558</v>
       </c>
       <c r="G76" t="n">
-        <v>49.55333333333337</v>
+        <v>49.5966666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>48</v>
       </c>
       <c r="C77" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D77" t="n">
         <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F77" t="n">
-        <v>13113.0618</v>
+        <v>77314.5912</v>
       </c>
       <c r="G77" t="n">
-        <v>49.50833333333337</v>
+        <v>49.55333333333337</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
         <v>48</v>
@@ -2393,15 +2626,18 @@
         <v>48</v>
       </c>
       <c r="E78" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F78" t="n">
-        <v>11943.1716</v>
+        <v>13113.0618</v>
       </c>
       <c r="G78" t="n">
-        <v>49.4616666666667</v>
+        <v>49.50833333333337</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="C79" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="D79" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="E79" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="F79" t="n">
-        <v>7800</v>
+        <v>11943.1716</v>
       </c>
       <c r="G79" t="n">
-        <v>49.42333333333337</v>
+        <v>49.4616666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C80" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D80" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>7800</v>
       </c>
       <c r="G80" t="n">
-        <v>49.39000000000003</v>
+        <v>49.42333333333337</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="E81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F81" t="n">
-        <v>19600</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>49.35000000000003</v>
+        <v>49.39000000000003</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="D82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F82" t="n">
-        <v>41.8685</v>
+        <v>19600</v>
       </c>
       <c r="G82" t="n">
-        <v>49.31500000000003</v>
+        <v>49.35000000000003</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>41.8685</v>
       </c>
       <c r="G83" t="n">
-        <v>49.28000000000004</v>
+        <v>49.31500000000003</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>48.4</v>
       </c>
       <c r="C84" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D84" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E84" t="n">
         <v>48.4</v>
       </c>
       <c r="F84" t="n">
-        <v>42306.9876</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>49.2416666666667</v>
+        <v>49.28000000000004</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C85" t="n">
         <v>48.6</v>
       </c>
-      <c r="C85" t="n">
-        <v>49</v>
-      </c>
       <c r="D85" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="E85" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F85" t="n">
-        <v>46193.66392857</v>
+        <v>42306.9876</v>
       </c>
       <c r="G85" t="n">
-        <v>49.21500000000003</v>
+        <v>49.2416666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="C86" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D86" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E86" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="F86" t="n">
-        <v>9531.0224</v>
+        <v>46193.66392857</v>
       </c>
       <c r="G86" t="n">
-        <v>49.1866666666667</v>
+        <v>49.21500000000003</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C87" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D87" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E87" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="F87" t="n">
-        <v>5093.9146</v>
+        <v>9531.0224</v>
       </c>
       <c r="G87" t="n">
-        <v>49.1566666666667</v>
+        <v>49.1866666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="C88" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D88" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E88" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F88" t="n">
-        <v>959.1675</v>
+        <v>5093.9146</v>
       </c>
       <c r="G88" t="n">
-        <v>49.13000000000003</v>
+        <v>49.1566666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F89" t="n">
-        <v>40609.81847143</v>
+        <v>959.1675</v>
       </c>
       <c r="G89" t="n">
-        <v>49.10000000000003</v>
+        <v>49.13000000000003</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="D90" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="E90" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="F90" t="n">
-        <v>105564.26789236</v>
+        <v>40609.81847143</v>
       </c>
       <c r="G90" t="n">
-        <v>49.08333333333336</v>
+        <v>49.10000000000003</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="C91" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D91" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E91" t="n">
         <v>49.2</v>
       </c>
       <c r="F91" t="n">
-        <v>21216.7124</v>
+        <v>105564.26789236</v>
       </c>
       <c r="G91" t="n">
-        <v>49.06333333333336</v>
+        <v>49.08333333333336</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C92" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D92" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E92" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="F92" t="n">
-        <v>23901.9575</v>
+        <v>21216.7124</v>
       </c>
       <c r="G92" t="n">
-        <v>49.04166666666669</v>
+        <v>49.06333333333336</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="C93" t="n">
         <v>49.6</v>
       </c>
       <c r="D93" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E93" t="n">
         <v>49.6</v>
       </c>
       <c r="F93" t="n">
-        <v>34997.8085</v>
+        <v>23901.9575</v>
       </c>
       <c r="G93" t="n">
-        <v>49.02000000000002</v>
+        <v>49.04166666666669</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D94" t="n">
         <v>49.7</v>
       </c>
-      <c r="C94" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>49.9</v>
-      </c>
       <c r="E94" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F94" t="n">
-        <v>10193.61</v>
+        <v>34997.8085</v>
       </c>
       <c r="G94" t="n">
-        <v>49.00500000000002</v>
+        <v>49.02000000000002</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C95" t="n">
         <v>49.9</v>
       </c>
-      <c r="C95" t="n">
-        <v>50</v>
-      </c>
       <c r="D95" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E95" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F95" t="n">
-        <v>143488.4419</v>
+        <v>10193.61</v>
       </c>
       <c r="G95" t="n">
-        <v>48.99000000000002</v>
+        <v>49.00500000000002</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C96" t="n">
         <v>50</v>
       </c>
-      <c r="C96" t="n">
-        <v>50.2</v>
-      </c>
       <c r="D96" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F96" t="n">
-        <v>30446.3609</v>
+        <v>143488.4419</v>
       </c>
       <c r="G96" t="n">
-        <v>48.98333333333335</v>
+        <v>48.99000000000002</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" t="n">
         <v>50.2</v>
       </c>
-      <c r="C97" t="n">
-        <v>50.4</v>
-      </c>
       <c r="D97" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="E97" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="F97" t="n">
-        <v>153275.5958</v>
+        <v>30446.3609</v>
       </c>
       <c r="G97" t="n">
-        <v>48.98000000000002</v>
+        <v>48.98333333333335</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>50.4</v>
       </c>
       <c r="D98" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="E98" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="F98" t="n">
-        <v>8149.4493</v>
+        <v>153275.5958</v>
       </c>
       <c r="G98" t="n">
-        <v>48.96500000000002</v>
+        <v>48.98000000000002</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C99" t="n">
         <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="E99" t="n">
         <v>50</v>
       </c>
       <c r="F99" t="n">
-        <v>2042.9390988</v>
+        <v>8149.4493</v>
       </c>
       <c r="G99" t="n">
-        <v>48.95333333333335</v>
+        <v>48.96500000000002</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>50.2</v>
       </c>
       <c r="C100" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>50.2</v>
       </c>
       <c r="E100" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>60387.8865</v>
+        <v>2042.9390988</v>
       </c>
       <c r="G100" t="n">
-        <v>48.94666666666669</v>
+        <v>48.95333333333335</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="C101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="D101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="E101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="F101" t="n">
-        <v>13481.3726</v>
+        <v>60387.8865</v>
       </c>
       <c r="G101" t="n">
-        <v>48.93500000000002</v>
+        <v>48.94666666666669</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>49.8</v>
       </c>
       <c r="C102" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="D102" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="E102" t="n">
         <v>49.8</v>
       </c>
       <c r="F102" t="n">
-        <v>32150.2469</v>
+        <v>13481.3726</v>
       </c>
       <c r="G102" t="n">
-        <v>48.92833333333336</v>
+        <v>48.93500000000002</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C103" t="n">
         <v>50.1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>49.5</v>
       </c>
       <c r="D103" t="n">
         <v>50.1</v>
       </c>
       <c r="E103" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="F103" t="n">
-        <v>18090.9277</v>
+        <v>32150.2469</v>
       </c>
       <c r="G103" t="n">
-        <v>48.92000000000002</v>
+        <v>48.92833333333336</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="C104" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E104" t="n">
         <v>49.4</v>
       </c>
-      <c r="D104" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>49.3</v>
-      </c>
       <c r="F104" t="n">
-        <v>48687.295</v>
+        <v>18090.9277</v>
       </c>
       <c r="G104" t="n">
-        <v>48.91166666666668</v>
+        <v>48.92000000000002</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C105" t="n">
         <v>49.4</v>
       </c>
-      <c r="C105" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D105" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E105" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="F105" t="n">
-        <v>106240.8449</v>
+        <v>48687.295</v>
       </c>
       <c r="G105" t="n">
-        <v>48.90833333333335</v>
+        <v>48.91166666666668</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C106" t="n">
         <v>49.1</v>
       </c>
       <c r="D106" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E106" t="n">
         <v>49.1</v>
       </c>
       <c r="F106" t="n">
-        <v>21971.928</v>
+        <v>106240.8449</v>
       </c>
       <c r="G106" t="n">
-        <v>48.90166666666668</v>
+        <v>48.90833333333335</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>49.2</v>
       </c>
       <c r="C107" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="D107" t="n">
         <v>49.2</v>
       </c>
       <c r="E107" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F107" t="n">
-        <v>6559</v>
+        <v>21971.928</v>
       </c>
       <c r="G107" t="n">
-        <v>48.90833333333334</v>
+        <v>48.90166666666668</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="C108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="D108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="E108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="F108" t="n">
-        <v>10151.9595</v>
+        <v>6559</v>
       </c>
       <c r="G108" t="n">
-        <v>48.92</v>
+        <v>48.90833333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C109" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D109" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F109" t="n">
-        <v>86045.31721523</v>
+        <v>10151.9595</v>
       </c>
       <c r="G109" t="n">
-        <v>48.93333333333334</v>
+        <v>48.92</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C110" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D110" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E110" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F110" t="n">
-        <v>55.4444</v>
+        <v>86045.31721523</v>
       </c>
       <c r="G110" t="n">
-        <v>48.94166666666668</v>
+        <v>48.93333333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3251,15 +3583,18 @@
         <v>49.5</v>
       </c>
       <c r="E111" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F111" t="n">
-        <v>2232.0238</v>
+        <v>55.4444</v>
       </c>
       <c r="G111" t="n">
-        <v>48.95000000000001</v>
+        <v>48.94166666666668</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,15 +3612,18 @@
         <v>49.5</v>
       </c>
       <c r="E112" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F112" t="n">
-        <v>817.0723</v>
+        <v>2232.0238</v>
       </c>
       <c r="G112" t="n">
-        <v>48.95666666666668</v>
+        <v>48.95000000000001</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C113" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="D113" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E113" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="F113" t="n">
-        <v>50908.4673</v>
+        <v>817.0723</v>
       </c>
       <c r="G113" t="n">
-        <v>48.96333333333335</v>
+        <v>48.95666666666668</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C114" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D114" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E114" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F114" t="n">
-        <v>59601.1623</v>
+        <v>50908.4673</v>
       </c>
       <c r="G114" t="n">
-        <v>48.97000000000001</v>
+        <v>48.96333333333335</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C115" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="D115" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E115" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="F115" t="n">
-        <v>2478.3032</v>
+        <v>59601.1623</v>
       </c>
       <c r="G115" t="n">
         <v>48.97000000000001</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="C116" t="n">
         <v>49</v>
       </c>
       <c r="D116" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="E116" t="n">
         <v>49</v>
       </c>
       <c r="F116" t="n">
-        <v>4000</v>
+        <v>2478.3032</v>
       </c>
       <c r="G116" t="n">
-        <v>48.97166666666667</v>
+        <v>48.97000000000001</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="C117" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D117" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E117" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="F117" t="n">
-        <v>145186.8133</v>
+        <v>4000</v>
       </c>
       <c r="G117" t="n">
         <v>48.97166666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C118" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D118" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E118" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="F118" t="n">
-        <v>718.8163</v>
+        <v>145186.8133</v>
       </c>
       <c r="G118" t="n">
-        <v>48.97333333333334</v>
+        <v>48.97166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="E119" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="F119" t="n">
-        <v>27348.2617</v>
+        <v>718.8163</v>
       </c>
       <c r="G119" t="n">
-        <v>48.97000000000001</v>
+        <v>48.97333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>48.8</v>
       </c>
       <c r="C120" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="D120" t="n">
         <v>48.8</v>
       </c>
       <c r="E120" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="F120" t="n">
-        <v>647.8278</v>
+        <v>27348.2617</v>
       </c>
       <c r="G120" t="n">
-        <v>48.96666666666668</v>
+        <v>48.97000000000001</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F121" t="n">
-        <v>4574.02462977</v>
+        <v>647.8278</v>
       </c>
       <c r="G121" t="n">
-        <v>48.96166666666667</v>
+        <v>48.96666666666668</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>48.7</v>
       </c>
       <c r="C122" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D122" t="n">
         <v>48.7</v>
       </c>
       <c r="E122" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F122" t="n">
-        <v>7989.1244</v>
+        <v>4574.02462977</v>
       </c>
       <c r="G122" t="n">
-        <v>48.95500000000001</v>
+        <v>48.96166666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="C123" t="n">
-        <v>48.1</v>
+        <v>48.6</v>
       </c>
       <c r="D123" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="E123" t="n">
-        <v>48.1</v>
+        <v>48.6</v>
       </c>
       <c r="F123" t="n">
-        <v>10872.1816</v>
+        <v>7989.1244</v>
       </c>
       <c r="G123" t="n">
-        <v>48.94833333333334</v>
+        <v>48.95500000000001</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C124" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D124" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E124" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1150.1175</v>
+        <v>10872.1816</v>
       </c>
       <c r="G124" t="n">
-        <v>48.95166666666668</v>
+        <v>48.94833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="C125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="D125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="E125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1028</v>
+        <v>1150.1175</v>
       </c>
       <c r="G125" t="n">
-        <v>48.95666666666667</v>
+        <v>48.95166666666668</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,21 +4012,24 @@
         <v>48.6</v>
       </c>
       <c r="C126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D126" t="n">
         <v>48.6</v>
       </c>
       <c r="E126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F126" t="n">
-        <v>2200</v>
+        <v>1028</v>
       </c>
       <c r="G126" t="n">
-        <v>48.96666666666667</v>
+        <v>48.95666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,10 +4038,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>48.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>48.6</v>
       </c>
       <c r="D127" t="n">
         <v>48.6</v>
@@ -3670,12 +4050,15 @@
         <v>48.5</v>
       </c>
       <c r="F127" t="n">
-        <v>6604.6158</v>
+        <v>2200</v>
       </c>
       <c r="G127" t="n">
-        <v>48.97833333333333</v>
+        <v>48.96666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C128" t="n">
         <v>48.6</v>
@@ -3693,15 +4076,18 @@
         <v>48.6</v>
       </c>
       <c r="E128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1376.4953</v>
+        <v>6604.6158</v>
       </c>
       <c r="G128" t="n">
-        <v>48.98999999999999</v>
+        <v>48.97833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>48.6</v>
       </c>
       <c r="F129" t="n">
-        <v>14800</v>
+        <v>1376.4953</v>
       </c>
       <c r="G129" t="n">
-        <v>49.00166666666666</v>
+        <v>48.98999999999999</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3742,18 +4131,21 @@
         <v>48.6</v>
       </c>
       <c r="D130" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E130" t="n">
         <v>48.6</v>
       </c>
       <c r="F130" t="n">
-        <v>7838.2722</v>
+        <v>14800</v>
       </c>
       <c r="G130" t="n">
-        <v>49.00999999999999</v>
+        <v>49.00166666666666</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C131" t="n">
         <v>48.6</v>
       </c>
       <c r="D131" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E131" t="n">
         <v>48.6</v>
       </c>
-      <c r="E131" t="n">
-        <v>48.4</v>
-      </c>
       <c r="F131" t="n">
-        <v>6773.0898</v>
+        <v>7838.2722</v>
       </c>
       <c r="G131" t="n">
-        <v>49.01833333333332</v>
+        <v>49.00999999999999</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C132" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E132" t="n">
         <v>48.4</v>
       </c>
-      <c r="D132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>48.3</v>
-      </c>
       <c r="F132" t="n">
-        <v>20654.1563</v>
+        <v>6773.0898</v>
       </c>
       <c r="G132" t="n">
-        <v>49.02499999999999</v>
+        <v>49.01833333333332</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,10 +4212,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C133" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D133" t="n">
         <v>48.5</v>
@@ -3826,12 +4224,15 @@
         <v>48.3</v>
       </c>
       <c r="F133" t="n">
-        <v>16463.8307</v>
+        <v>20654.1563</v>
       </c>
       <c r="G133" t="n">
-        <v>49.03166666666666</v>
+        <v>49.02499999999999</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C134" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D134" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E134" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F134" t="n">
-        <v>1297.3773</v>
+        <v>16463.8307</v>
       </c>
       <c r="G134" t="n">
         <v>49.03166666666666</v>
       </c>
       <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>48.4</v>
       </c>
       <c r="C135" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D135" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="E135" t="n">
         <v>48.4</v>
       </c>
       <c r="F135" t="n">
-        <v>40677.9999</v>
+        <v>1297.3773</v>
       </c>
       <c r="G135" t="n">
-        <v>49.04166666666666</v>
+        <v>49.03166666666666</v>
       </c>
       <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +4299,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C136" t="n">
         <v>48.6</v>
@@ -3901,15 +4308,18 @@
         <v>48.7</v>
       </c>
       <c r="E136" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F136" t="n">
-        <v>55.9609</v>
+        <v>40677.9999</v>
       </c>
       <c r="G136" t="n">
-        <v>49.05333333333332</v>
+        <v>49.04166666666666</v>
       </c>
       <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C137" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D137" t="n">
         <v>48.7</v>
       </c>
       <c r="E137" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="F137" t="n">
-        <v>11400</v>
+        <v>55.9609</v>
       </c>
       <c r="G137" t="n">
-        <v>49.06499999999998</v>
+        <v>49.05333333333332</v>
       </c>
       <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>48.7</v>
       </c>
       <c r="C138" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D138" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E138" t="n">
         <v>48.7</v>
       </c>
       <c r="F138" t="n">
-        <v>46771.8069</v>
+        <v>11400</v>
       </c>
       <c r="G138" t="n">
-        <v>49.07833333333333</v>
+        <v>49.06499999999998</v>
       </c>
       <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C139" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="D139" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="E139" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="F139" t="n">
-        <v>100816.2429</v>
+        <v>46771.8069</v>
       </c>
       <c r="G139" t="n">
-        <v>49.07666666666666</v>
+        <v>49.07833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C140" t="n">
         <v>48.4</v>
       </c>
-      <c r="C140" t="n">
-        <v>48.6</v>
-      </c>
       <c r="D140" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="E140" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F140" t="n">
-        <v>107566.568</v>
+        <v>100816.2429</v>
       </c>
       <c r="G140" t="n">
-        <v>49.07999999999999</v>
+        <v>49.07666666666666</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="C141" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D141" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E141" t="n">
-        <v>48.7</v>
+        <v>48.2</v>
       </c>
       <c r="F141" t="n">
-        <v>4502.5051</v>
+        <v>107566.568</v>
       </c>
       <c r="G141" t="n">
-        <v>49.08333333333332</v>
+        <v>49.07999999999999</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>48.7</v>
       </c>
       <c r="C142" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D142" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E142" t="n">
         <v>48.7</v>
       </c>
       <c r="F142" t="n">
-        <v>61101.0338</v>
+        <v>4502.5051</v>
       </c>
       <c r="G142" t="n">
-        <v>49.08666666666666</v>
+        <v>49.08333333333332</v>
       </c>
       <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="C143" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="D143" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="E143" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>61101.0338</v>
       </c>
       <c r="G143" t="n">
-        <v>49.09666666666666</v>
+        <v>49.08666666666666</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C144" t="n">
         <v>49</v>
       </c>
-      <c r="C144" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D144" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E144" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F144" t="n">
-        <v>35314.2605</v>
+        <v>50000</v>
       </c>
       <c r="G144" t="n">
-        <v>49.10499999999999</v>
+        <v>49.09666666666666</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>49</v>
       </c>
       <c r="F145" t="n">
-        <v>1010</v>
+        <v>35314.2605</v>
       </c>
       <c r="G145" t="n">
-        <v>49.10666666666665</v>
+        <v>49.10499999999999</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4589,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C146" t="n">
         <v>49.1</v>
@@ -4161,15 +4598,18 @@
         <v>49.1</v>
       </c>
       <c r="E146" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="F146" t="n">
-        <v>335.7636</v>
+        <v>1010</v>
       </c>
       <c r="G146" t="n">
-        <v>49.10999999999999</v>
+        <v>49.10666666666665</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="C147" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="D147" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="E147" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F147" t="n">
-        <v>23602.2483</v>
+        <v>335.7636</v>
       </c>
       <c r="G147" t="n">
-        <v>49.11666666666665</v>
+        <v>49.10999999999999</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="C148" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D148" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E148" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="F148" t="n">
-        <v>20017.1919</v>
+        <v>23602.2483</v>
       </c>
       <c r="G148" t="n">
-        <v>49.12666666666665</v>
+        <v>49.11666666666665</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>49.5</v>
       </c>
       <c r="F149" t="n">
-        <v>2644.0202</v>
+        <v>20017.1919</v>
       </c>
       <c r="G149" t="n">
-        <v>49.13499999999998</v>
+        <v>49.12666666666665</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>49.5</v>
       </c>
       <c r="C150" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D150" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E150" t="n">
         <v>49.5</v>
       </c>
       <c r="F150" t="n">
-        <v>159971.4023</v>
+        <v>2644.0202</v>
       </c>
       <c r="G150" t="n">
         <v>49.13499999999998</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C151" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D151" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E151" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F151" t="n">
-        <v>83910.4823</v>
+        <v>159971.4023</v>
       </c>
       <c r="G151" t="n">
-        <v>49.13833333333332</v>
+        <v>49.13499999999998</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C152" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="D152" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E152" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F152" t="n">
-        <v>21705.0424</v>
+        <v>83910.4823</v>
       </c>
       <c r="G152" t="n">
-        <v>49.13999999999999</v>
+        <v>49.13833333333332</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4792,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C153" t="n">
         <v>49.7</v>
@@ -4343,15 +4801,18 @@
         <v>49.7</v>
       </c>
       <c r="E153" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F153" t="n">
-        <v>19374.4198</v>
+        <v>21705.0424</v>
       </c>
       <c r="G153" t="n">
-        <v>49.14166666666665</v>
+        <v>49.13999999999999</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C154" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D154" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E154" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F154" t="n">
-        <v>2669.8571</v>
+        <v>19374.4198</v>
       </c>
       <c r="G154" t="n">
-        <v>49.13666666666665</v>
+        <v>49.14166666666665</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C155" t="n">
         <v>49.6</v>
@@ -4398,12 +4862,15 @@
         <v>49.5</v>
       </c>
       <c r="F155" t="n">
-        <v>19248.4466</v>
+        <v>2669.8571</v>
       </c>
       <c r="G155" t="n">
-        <v>49.12999999999998</v>
+        <v>49.13666666666665</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4421,15 +4888,18 @@
         <v>49.6</v>
       </c>
       <c r="E156" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>19248.4466</v>
       </c>
       <c r="G156" t="n">
-        <v>49.11999999999998</v>
+        <v>49.12999999999998</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="C157" t="n">
         <v>49.6</v>
       </c>
       <c r="D157" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E157" t="n">
         <v>49.6</v>
       </c>
       <c r="F157" t="n">
-        <v>13580.4655</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="n">
-        <v>49.10666666666665</v>
+        <v>49.11999999999998</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C158" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D158" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E158" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F158" t="n">
-        <v>4948.523</v>
+        <v>13580.4655</v>
       </c>
       <c r="G158" t="n">
-        <v>49.09666666666665</v>
+        <v>49.10666666666665</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="C159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D159" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F159" t="n">
-        <v>7984.6929</v>
+        <v>4948.523</v>
       </c>
       <c r="G159" t="n">
-        <v>49.08499999999999</v>
+        <v>49.09666666666665</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F160" t="n">
-        <v>3561.8314</v>
+        <v>7984.6929</v>
       </c>
       <c r="G160" t="n">
-        <v>49.07166666666665</v>
+        <v>49.08499999999999</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F161" t="n">
-        <v>23255.1228</v>
+        <v>3561.8314</v>
       </c>
       <c r="G161" t="n">
-        <v>49.06333333333332</v>
+        <v>49.07166666666665</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>49.3</v>
       </c>
       <c r="F162" t="n">
-        <v>9028.3815</v>
+        <v>23255.1228</v>
       </c>
       <c r="G162" t="n">
-        <v>49.04999999999999</v>
+        <v>49.06333333333332</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>49.3</v>
       </c>
       <c r="F163" t="n">
-        <v>524.3085</v>
+        <v>9028.3815</v>
       </c>
       <c r="G163" t="n">
-        <v>49.04666666666666</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>49.3</v>
       </c>
       <c r="F164" t="n">
-        <v>18302.7705</v>
+        <v>524.3085</v>
       </c>
       <c r="G164" t="n">
-        <v>49.04499999999999</v>
+        <v>49.04666666666666</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C165" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D165" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E165" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F165" t="n">
-        <v>16465.8652</v>
+        <v>18302.7705</v>
       </c>
       <c r="G165" t="n">
-        <v>49.04666666666666</v>
+        <v>49.04499999999999</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C166" t="n">
         <v>49.2</v>
       </c>
       <c r="D166" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E166" t="n">
         <v>49.2</v>
       </c>
       <c r="F166" t="n">
-        <v>14163.4096</v>
+        <v>16465.8652</v>
       </c>
       <c r="G166" t="n">
-        <v>49.04833333333332</v>
+        <v>49.04666666666666</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>49.2</v>
       </c>
       <c r="F167" t="n">
-        <v>67919.5025</v>
+        <v>14163.4096</v>
       </c>
       <c r="G167" t="n">
         <v>49.04833333333332</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="D168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="E168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F168" t="n">
-        <v>372.3377</v>
+        <v>67919.5025</v>
       </c>
       <c r="G168" t="n">
-        <v>49.04499999999999</v>
+        <v>49.04833333333332</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>49.3</v>
       </c>
       <c r="F169" t="n">
-        <v>2254</v>
+        <v>372.3377</v>
       </c>
       <c r="G169" t="n">
-        <v>49.035</v>
+        <v>49.04499999999999</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>49.3</v>
       </c>
       <c r="C170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D170" t="n">
         <v>49.3</v>
       </c>
       <c r="E170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F170" t="n">
-        <v>1919.99227565</v>
+        <v>2254</v>
       </c>
       <c r="G170" t="n">
-        <v>49.02999999999999</v>
+        <v>49.035</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C171" t="n">
         <v>49.2</v>
       </c>
       <c r="D171" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E171" t="n">
         <v>49.2</v>
       </c>
       <c r="F171" t="n">
-        <v>13380.11280487</v>
+        <v>1919.99227565</v>
       </c>
       <c r="G171" t="n">
-        <v>49.02499999999999</v>
+        <v>49.02999999999999</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="C172" t="n">
         <v>49.2</v>
@@ -4837,15 +5352,18 @@
         <v>49.2</v>
       </c>
       <c r="E172" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="F172" t="n">
-        <v>42293</v>
+        <v>13380.11280487</v>
       </c>
       <c r="G172" t="n">
-        <v>49.01999999999999</v>
+        <v>49.02499999999999</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="C173" t="n">
         <v>49.2</v>
@@ -4863,15 +5381,18 @@
         <v>49.2</v>
       </c>
       <c r="E173" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F173" t="n">
-        <v>15780.6755</v>
+        <v>42293</v>
       </c>
       <c r="G173" t="n">
-        <v>49.01833333333332</v>
+        <v>49.01999999999999</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,21 +5404,24 @@
         <v>49.2</v>
       </c>
       <c r="C174" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="D174" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E174" t="n">
         <v>49.2</v>
       </c>
       <c r="F174" t="n">
-        <v>28200</v>
+        <v>15780.6755</v>
       </c>
       <c r="G174" t="n">
-        <v>49.02166666666665</v>
+        <v>49.01833333333332</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C175" t="n">
         <v>49.4</v>
@@ -4915,15 +5439,18 @@
         <v>49.4</v>
       </c>
       <c r="E175" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="F175" t="n">
-        <v>25.7894</v>
+        <v>28200</v>
       </c>
       <c r="G175" t="n">
-        <v>49.02833333333332</v>
+        <v>49.02166666666665</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C176" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="D176" t="n">
         <v>49.4</v>
       </c>
       <c r="E176" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="F176" t="n">
-        <v>13167.9102</v>
+        <v>25.7894</v>
       </c>
       <c r="G176" t="n">
         <v>49.02833333333332</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C177" t="n">
         <v>49</v>
       </c>
       <c r="D177" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E177" t="n">
         <v>49</v>
       </c>
       <c r="F177" t="n">
-        <v>19039.7202</v>
+        <v>13167.9102</v>
       </c>
       <c r="G177" t="n">
-        <v>49.02999999999999</v>
+        <v>49.02833333333332</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>48.8</v>
+        <v>49.2</v>
       </c>
       <c r="C178" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="D178" t="n">
-        <v>48.8</v>
+        <v>49.2</v>
       </c>
       <c r="E178" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F178" t="n">
-        <v>383.8165</v>
+        <v>19039.7202</v>
       </c>
       <c r="G178" t="n">
-        <v>49.02666666666666</v>
+        <v>49.02999999999999</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C179" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="D179" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="E179" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F179" t="n">
-        <v>3402.678</v>
+        <v>383.8165</v>
       </c>
       <c r="G179" t="n">
-        <v>49.03499999999999</v>
+        <v>49.02666666666666</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C180" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D180" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E180" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="F180" t="n">
-        <v>3157.7235</v>
+        <v>3402.678</v>
       </c>
       <c r="G180" t="n">
-        <v>49.03833333333332</v>
+        <v>49.03499999999999</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>49</v>
       </c>
       <c r="F181" t="n">
-        <v>17849.9999</v>
+        <v>3157.7235</v>
       </c>
       <c r="G181" t="n">
-        <v>49.04333333333332</v>
+        <v>49.03833333333332</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="D182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E182" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F182" t="n">
-        <v>7311.029</v>
+        <v>17849.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>49.05166666666666</v>
+        <v>49.04333333333332</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="C183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="D183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="E183" t="n">
         <v>48.8</v>
       </c>
       <c r="F183" t="n">
-        <v>1469.4965</v>
+        <v>7311.029</v>
       </c>
       <c r="G183" t="n">
-        <v>49.06499999999999</v>
+        <v>49.05166666666666</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +5691,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="C184" t="n">
         <v>48.9</v>
@@ -5152,12 +5703,15 @@
         <v>48.8</v>
       </c>
       <c r="F184" t="n">
-        <v>6461.7533</v>
+        <v>1469.4965</v>
       </c>
       <c r="G184" t="n">
-        <v>49.075</v>
+        <v>49.06499999999999</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,21 +5723,24 @@
         <v>48.8</v>
       </c>
       <c r="C185" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D185" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="E185" t="n">
         <v>48.8</v>
       </c>
       <c r="F185" t="n">
-        <v>5491.2488</v>
+        <v>6461.7533</v>
       </c>
       <c r="G185" t="n">
-        <v>49.07833333333333</v>
+        <v>49.075</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F186" t="n">
-        <v>43611.5313</v>
+        <v>5491.2488</v>
       </c>
       <c r="G186" t="n">
-        <v>49.08166666666666</v>
+        <v>49.07833333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>48.7</v>
       </c>
       <c r="F187" t="n">
-        <v>22994.8277</v>
+        <v>43611.5313</v>
       </c>
       <c r="G187" t="n">
-        <v>49.08333333333333</v>
+        <v>49.08166666666666</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>48.7</v>
       </c>
       <c r="C188" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D188" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E188" t="n">
         <v>48.7</v>
       </c>
       <c r="F188" t="n">
-        <v>149.20081987</v>
+        <v>22994.8277</v>
       </c>
       <c r="G188" t="n">
-        <v>49.08666666666667</v>
+        <v>49.08333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C189" t="n">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="D189" t="n">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="E189" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F189" t="n">
-        <v>17720.2332</v>
+        <v>149.20081987</v>
       </c>
       <c r="G189" t="n">
         <v>49.08666666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="C190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2700.3263</v>
+        <v>17720.2332</v>
       </c>
       <c r="G190" t="n">
-        <v>49.08833333333333</v>
+        <v>49.08666666666667</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="E191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F191" t="n">
-        <v>1082</v>
+        <v>2700.3263</v>
       </c>
       <c r="G191" t="n">
         <v>49.08833333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="C192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="E192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F192" t="n">
-        <v>3090.0673</v>
+        <v>1082</v>
       </c>
       <c r="G192" t="n">
-        <v>49.09</v>
+        <v>49.08833333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C193" t="n">
         <v>48.5</v>
       </c>
       <c r="D193" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E193" t="n">
         <v>48.5</v>
       </c>
       <c r="F193" t="n">
-        <v>8999.324699999999</v>
+        <v>3090.0673</v>
       </c>
       <c r="G193" t="n">
         <v>49.09</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C194" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D194" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E194" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F194" t="n">
-        <v>13047.8325</v>
+        <v>8999.324699999999</v>
       </c>
       <c r="G194" t="n">
         <v>49.09</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5432,18 +6016,21 @@
         <v>48.4</v>
       </c>
       <c r="D195" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="E195" t="n">
         <v>48.4</v>
       </c>
       <c r="F195" t="n">
-        <v>10984.1667</v>
+        <v>13047.8325</v>
       </c>
       <c r="G195" t="n">
-        <v>49.08666666666667</v>
+        <v>49.09</v>
       </c>
       <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,7 +6042,7 @@
         <v>48.4</v>
       </c>
       <c r="C196" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D196" t="n">
         <v>48.5</v>
@@ -5464,12 +6051,15 @@
         <v>48.4</v>
       </c>
       <c r="F196" t="n">
-        <v>9082.264999999999</v>
+        <v>10984.1667</v>
       </c>
       <c r="G196" t="n">
-        <v>49.085</v>
+        <v>49.08666666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,7 +6068,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C197" t="n">
         <v>48.5</v>
@@ -5487,15 +6077,18 @@
         <v>48.5</v>
       </c>
       <c r="E197" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F197" t="n">
-        <v>4528.9277</v>
+        <v>9082.264999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>49.08166666666667</v>
+        <v>49.085</v>
       </c>
       <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C198" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="D198" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="E198" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F198" t="n">
-        <v>7509.6758</v>
+        <v>4528.9277</v>
       </c>
       <c r="G198" t="n">
-        <v>49.08333333333334</v>
+        <v>49.08166666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="C199" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="D199" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E199" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="F199" t="n">
-        <v>64.5398</v>
+        <v>7509.6758</v>
       </c>
       <c r="G199" t="n">
-        <v>49.08833333333333</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="C200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="D200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="E200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="F200" t="n">
-        <v>3172.1159</v>
+        <v>64.5398</v>
       </c>
       <c r="G200" t="n">
-        <v>49.085</v>
+        <v>49.08833333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C201" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D201" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E201" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F201" t="n">
-        <v>10635.3395</v>
+        <v>3172.1159</v>
       </c>
       <c r="G201" t="n">
-        <v>49.08333333333334</v>
+        <v>49.085</v>
       </c>
       <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="C202" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="D202" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="E202" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="F202" t="n">
-        <v>21800</v>
+        <v>10635.3395</v>
       </c>
       <c r="G202" t="n">
-        <v>49.085</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,7 +6242,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C203" t="n">
         <v>48.9</v>
@@ -5643,15 +6251,18 @@
         <v>48.9</v>
       </c>
       <c r="E203" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F203" t="n">
-        <v>1572.0375</v>
+        <v>21800</v>
       </c>
       <c r="G203" t="n">
-        <v>49.08333333333334</v>
+        <v>49.085</v>
       </c>
       <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F204" t="n">
-        <v>10000</v>
+        <v>1572.0375</v>
       </c>
       <c r="G204" t="n">
-        <v>49.08166666666667</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>49</v>
       </c>
       <c r="F205" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G205" t="n">
-        <v>49.08000000000001</v>
+        <v>49.08166666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F206" t="n">
-        <v>375.1213</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="n">
-        <v>49.07666666666668</v>
+        <v>49.08000000000001</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>48.9</v>
       </c>
       <c r="F207" t="n">
-        <v>16283.534</v>
+        <v>375.1213</v>
       </c>
       <c r="G207" t="n">
-        <v>49.06833333333334</v>
+        <v>49.07666666666668</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>16283.534</v>
       </c>
       <c r="G208" t="n">
-        <v>49.06000000000001</v>
+        <v>49.06833333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F209" t="n">
-        <v>2693.5755</v>
+        <v>10</v>
       </c>
       <c r="G209" t="n">
-        <v>49.05</v>
+        <v>49.06000000000001</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>48.9</v>
       </c>
       <c r="F210" t="n">
-        <v>14648</v>
+        <v>2693.5755</v>
       </c>
       <c r="G210" t="n">
-        <v>49.035</v>
+        <v>49.05</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="D211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="F211" t="n">
-        <v>4329.1095</v>
+        <v>14648</v>
       </c>
       <c r="G211" t="n">
-        <v>49.015</v>
+        <v>49.035</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="E212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F212" t="n">
-        <v>217.456</v>
+        <v>4329.1095</v>
       </c>
       <c r="G212" t="n">
-        <v>48.99666666666667</v>
+        <v>49.015</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="F213" t="n">
-        <v>1436.1284</v>
+        <v>217.456</v>
       </c>
       <c r="G213" t="n">
-        <v>48.97500000000001</v>
+        <v>48.99666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="C214" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="D214" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E214" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="F214" t="n">
-        <v>20893.8899</v>
+        <v>1436.1284</v>
       </c>
       <c r="G214" t="n">
-        <v>48.95000000000001</v>
+        <v>48.97500000000001</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="C215" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="D215" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="E215" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F215" t="n">
-        <v>17006.1237</v>
+        <v>20893.8899</v>
       </c>
       <c r="G215" t="n">
-        <v>48.93166666666668</v>
+        <v>48.95000000000001</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="C216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="D216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="E216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="F216" t="n">
-        <v>1517.7707</v>
+        <v>17006.1237</v>
       </c>
       <c r="G216" t="n">
-        <v>48.90833333333334</v>
+        <v>48.93166666666668</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="C217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="D217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="E217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="F217" t="n">
-        <v>14207</v>
+        <v>1517.7707</v>
       </c>
       <c r="G217" t="n">
-        <v>48.88833333333334</v>
+        <v>48.90833333333334</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>48.4</v>
       </c>
       <c r="F218" t="n">
-        <v>1966.9246</v>
+        <v>14207</v>
       </c>
       <c r="G218" t="n">
-        <v>48.87166666666668</v>
+        <v>48.88833333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="C219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="D219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="E219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F219" t="n">
-        <v>739.3392</v>
+        <v>1966.9246</v>
       </c>
       <c r="G219" t="n">
-        <v>48.85333333333334</v>
+        <v>48.87166666666668</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F220" t="n">
-        <v>130.8447</v>
+        <v>739.3392</v>
       </c>
       <c r="G220" t="n">
-        <v>48.83500000000001</v>
+        <v>48.85333333333334</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>48.3</v>
       </c>
       <c r="F221" t="n">
-        <v>223.7432</v>
+        <v>130.8447</v>
       </c>
       <c r="G221" t="n">
-        <v>48.81833333333334</v>
+        <v>48.83500000000001</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F222" t="n">
-        <v>1482.6501</v>
+        <v>223.7432</v>
       </c>
       <c r="G222" t="n">
-        <v>48.8</v>
+        <v>48.81833333333334</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>48.2</v>
       </c>
       <c r="F223" t="n">
-        <v>325.2903</v>
+        <v>1482.6501</v>
       </c>
       <c r="G223" t="n">
-        <v>48.78166666666666</v>
+        <v>48.8</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F224" t="n">
-        <v>103.4265</v>
+        <v>325.2903</v>
       </c>
       <c r="G224" t="n">
-        <v>48.76499999999999</v>
+        <v>48.78166666666666</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,21 +6883,24 @@
         <v>48.3</v>
       </c>
       <c r="C225" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="D225" t="n">
         <v>48.3</v>
       </c>
       <c r="E225" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="F225" t="n">
-        <v>1501.8333</v>
+        <v>103.4265</v>
       </c>
       <c r="G225" t="n">
-        <v>48.74666666666666</v>
+        <v>48.76499999999999</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="C226" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D226" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="E226" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F226" t="n">
-        <v>5299.9004</v>
+        <v>1501.8333</v>
       </c>
       <c r="G226" t="n">
-        <v>48.72333333333334</v>
+        <v>48.74666666666666</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C227" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D227" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E227" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F227" t="n">
-        <v>507.2249</v>
+        <v>5299.9004</v>
       </c>
       <c r="G227" t="n">
-        <v>48.70166666666668</v>
+        <v>48.72333333333334</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C228" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="D228" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E228" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>507.2249</v>
       </c>
       <c r="G228" t="n">
-        <v>48.68333333333333</v>
+        <v>48.70166666666668</v>
       </c>
       <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C229" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D229" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E229" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="F229" t="n">
-        <v>166562.1636</v>
+        <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>48.66333333333333</v>
+        <v>48.68333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="C230" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D230" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E230" t="n">
         <v>47.8</v>
       </c>
       <c r="F230" t="n">
-        <v>393.2314</v>
+        <v>166562.1636</v>
       </c>
       <c r="G230" t="n">
-        <v>48.64</v>
+        <v>48.66333333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C231" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D231" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E231" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F231" t="n">
-        <v>653.3154</v>
+        <v>393.2314</v>
       </c>
       <c r="G231" t="n">
-        <v>48.61833333333334</v>
+        <v>48.64</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C232" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D232" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E232" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F232" t="n">
-        <v>1695</v>
+        <v>653.3154</v>
       </c>
       <c r="G232" t="n">
-        <v>48.59833333333334</v>
+        <v>48.61833333333334</v>
       </c>
       <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F233" t="n">
-        <v>30.4481</v>
+        <v>1695</v>
       </c>
       <c r="G233" t="n">
-        <v>48.58000000000001</v>
+        <v>48.59833333333334</v>
       </c>
       <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>48.1</v>
       </c>
       <c r="C234" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D234" t="n">
         <v>48.1</v>
       </c>
       <c r="E234" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F234" t="n">
-        <v>8426.474899999999</v>
+        <v>30.4481</v>
       </c>
       <c r="G234" t="n">
-        <v>48.55666666666668</v>
+        <v>48.58000000000001</v>
       </c>
       <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C235" t="n">
         <v>48</v>
       </c>
       <c r="D235" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E235" t="n">
         <v>48</v>
       </c>
       <c r="F235" t="n">
-        <v>28088.06236666</v>
+        <v>8426.474899999999</v>
       </c>
       <c r="G235" t="n">
-        <v>48.53333333333334</v>
+        <v>48.55666666666668</v>
       </c>
       <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6498,18 +7205,21 @@
         <v>48</v>
       </c>
       <c r="D236" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E236" t="n">
         <v>48</v>
       </c>
       <c r="F236" t="n">
-        <v>384.2119</v>
+        <v>28088.06236666</v>
       </c>
       <c r="G236" t="n">
-        <v>48.51666666666667</v>
+        <v>48.53333333333334</v>
       </c>
       <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C237" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="D237" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="E237" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="F237" t="n">
-        <v>5341.1195</v>
+        <v>384.2119</v>
       </c>
       <c r="G237" t="n">
-        <v>48.495</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C238" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D238" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E238" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F238" t="n">
-        <v>1402.8644</v>
+        <v>5341.1195</v>
       </c>
       <c r="G238" t="n">
-        <v>48.47833333333334</v>
+        <v>48.495</v>
       </c>
       <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="C239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="E239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F239" t="n">
-        <v>9797.257100000001</v>
+        <v>1402.8644</v>
       </c>
       <c r="G239" t="n">
-        <v>48.46166666666667</v>
+        <v>48.47833333333334</v>
       </c>
       <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6599,21 +7318,24 @@
         <v>47.9</v>
       </c>
       <c r="C240" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D240" t="n">
         <v>47.9</v>
       </c>
       <c r="E240" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F240" t="n">
-        <v>756.7533</v>
+        <v>9797.257100000001</v>
       </c>
       <c r="G240" t="n">
-        <v>48.44</v>
+        <v>48.46166666666667</v>
       </c>
       <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6625,21 +7347,24 @@
         <v>47.9</v>
       </c>
       <c r="C241" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D241" t="n">
         <v>47.9</v>
       </c>
       <c r="E241" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="F241" t="n">
-        <v>2721.4536</v>
+        <v>756.7533</v>
       </c>
       <c r="G241" t="n">
-        <v>48.42166666666667</v>
+        <v>48.44</v>
       </c>
       <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="D242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="F242" t="n">
-        <v>1763.345</v>
+        <v>2721.4536</v>
       </c>
       <c r="G242" t="n">
-        <v>48.40000000000001</v>
+        <v>48.42166666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>47.8</v>
       </c>
       <c r="F243" t="n">
-        <v>8774.8802</v>
+        <v>1763.345</v>
       </c>
       <c r="G243" t="n">
-        <v>48.38166666666667</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,21 +7434,24 @@
         <v>47.8</v>
       </c>
       <c r="C244" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D244" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="E244" t="n">
         <v>47.8</v>
       </c>
       <c r="F244" t="n">
-        <v>103788.1685</v>
+        <v>8774.8802</v>
       </c>
       <c r="G244" t="n">
-        <v>48.36500000000001</v>
+        <v>48.38166666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="C245" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D245" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E245" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F245" t="n">
-        <v>17063.927</v>
+        <v>103788.1685</v>
       </c>
       <c r="G245" t="n">
-        <v>48.35166666666667</v>
+        <v>48.36500000000001</v>
       </c>
       <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>48</v>
       </c>
       <c r="F246" t="n">
-        <v>185.4729</v>
+        <v>17063.927</v>
       </c>
       <c r="G246" t="n">
-        <v>48.34000000000001</v>
+        <v>48.35166666666667</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,12 +7530,15 @@
         <v>48</v>
       </c>
       <c r="F247" t="n">
-        <v>15145.2104</v>
+        <v>185.4729</v>
       </c>
       <c r="G247" t="n">
-        <v>48.32833333333335</v>
+        <v>48.34000000000001</v>
       </c>
       <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="D248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="E248" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F248" t="n">
-        <v>610.1292999999999</v>
+        <v>15145.2104</v>
       </c>
       <c r="G248" t="n">
-        <v>48.31833333333334</v>
+        <v>48.32833333333335</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6839,15 +7585,18 @@
         <v>48.2</v>
       </c>
       <c r="E249" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F249" t="n">
-        <v>109.0663</v>
+        <v>610.1292999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>48.31166666666667</v>
+        <v>48.31833333333334</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,21 +7608,24 @@
         <v>48.2</v>
       </c>
       <c r="C250" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D250" t="n">
         <v>48.2</v>
       </c>
       <c r="E250" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F250" t="n">
-        <v>7033.751</v>
+        <v>109.0663</v>
       </c>
       <c r="G250" t="n">
-        <v>48.3</v>
+        <v>48.31166666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C251" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D251" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E251" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F251" t="n">
-        <v>18579.9554</v>
+        <v>7033.751</v>
       </c>
       <c r="G251" t="n">
-        <v>48.29166666666667</v>
+        <v>48.3</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E252" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F252" t="n">
-        <v>3240.8811</v>
+        <v>18579.9554</v>
       </c>
       <c r="G252" t="n">
-        <v>48.28333333333334</v>
+        <v>48.29166666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F253" t="n">
-        <v>3419.4345</v>
+        <v>3240.8811</v>
       </c>
       <c r="G253" t="n">
-        <v>48.27333333333334</v>
+        <v>48.28333333333334</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6969,15 +7730,18 @@
         <v>47.9</v>
       </c>
       <c r="E254" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="F254" t="n">
-        <v>6993.6048</v>
+        <v>3419.4345</v>
       </c>
       <c r="G254" t="n">
-        <v>48.26500000000001</v>
+        <v>48.27333333333334</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E255" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F255" t="n">
-        <v>40.8125</v>
+        <v>6993.6048</v>
       </c>
       <c r="G255" t="n">
-        <v>48.25833333333334</v>
+        <v>48.26500000000001</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,12 +7791,15 @@
         <v>48</v>
       </c>
       <c r="F256" t="n">
-        <v>13.75</v>
+        <v>40.8125</v>
       </c>
       <c r="G256" t="n">
-        <v>48.25000000000001</v>
+        <v>48.25833333333334</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7050,12 +7820,15 @@
         <v>48</v>
       </c>
       <c r="F257" t="n">
-        <v>148.8</v>
+        <v>13.75</v>
       </c>
       <c r="G257" t="n">
-        <v>48.24166666666667</v>
+        <v>48.25000000000001</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F258" t="n">
-        <v>133.9066</v>
+        <v>148.8</v>
       </c>
       <c r="G258" t="n">
-        <v>48.22500000000001</v>
+        <v>48.24166666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F259" t="n">
-        <v>328.5676</v>
+        <v>133.9066</v>
       </c>
       <c r="G259" t="n">
-        <v>48.21333333333335</v>
+        <v>48.22500000000001</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>48</v>
       </c>
       <c r="F260" t="n">
-        <v>251.0936</v>
+        <v>328.5676</v>
       </c>
       <c r="G260" t="n">
-        <v>48.20666666666668</v>
+        <v>48.21333333333335</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>48</v>
       </c>
       <c r="F261" t="n">
-        <v>63.7083</v>
+        <v>251.0936</v>
       </c>
       <c r="G261" t="n">
-        <v>48.19666666666668</v>
+        <v>48.20666666666668</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F262" t="n">
-        <v>34.6737</v>
+        <v>63.7083</v>
       </c>
       <c r="G262" t="n">
-        <v>48.18000000000001</v>
+        <v>48.19666666666668</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7206,12 +7994,15 @@
         <v>47.9</v>
       </c>
       <c r="F263" t="n">
-        <v>122.7034</v>
+        <v>34.6737</v>
       </c>
       <c r="G263" t="n">
-        <v>48.16333333333334</v>
+        <v>48.18000000000001</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F264" t="n">
-        <v>502.7852</v>
+        <v>122.7034</v>
       </c>
       <c r="G264" t="n">
-        <v>48.14666666666668</v>
+        <v>48.16333333333334</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>48</v>
       </c>
       <c r="F265" t="n">
-        <v>137.7458</v>
+        <v>502.7852</v>
       </c>
       <c r="G265" t="n">
-        <v>48.13000000000001</v>
+        <v>48.14666666666668</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,21 +8072,24 @@
         <v>48</v>
       </c>
       <c r="C266" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D266" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E266" t="n">
         <v>48</v>
       </c>
       <c r="F266" t="n">
-        <v>2930.2764</v>
+        <v>137.7458</v>
       </c>
       <c r="G266" t="n">
-        <v>48.11666666666667</v>
+        <v>48.13000000000001</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C267" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D267" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E267" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F267" t="n">
-        <v>111.1202</v>
+        <v>2930.2764</v>
       </c>
       <c r="G267" t="n">
-        <v>48.105</v>
+        <v>48.11666666666667</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7336,12 +8139,15 @@
         <v>48.2</v>
       </c>
       <c r="F268" t="n">
-        <v>271.9602</v>
+        <v>111.1202</v>
       </c>
       <c r="G268" t="n">
-        <v>48.09166666666667</v>
+        <v>48.105</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>48.2</v>
       </c>
       <c r="F269" t="n">
-        <v>9586.559999999999</v>
+        <v>271.9602</v>
       </c>
       <c r="G269" t="n">
-        <v>48.08</v>
+        <v>48.09166666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,12 +8197,15 @@
         <v>48.2</v>
       </c>
       <c r="F270" t="n">
-        <v>1823.5715</v>
+        <v>9586.559999999999</v>
       </c>
       <c r="G270" t="n">
-        <v>48.06833333333332</v>
+        <v>48.08</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7414,12 +8226,15 @@
         <v>48.2</v>
       </c>
       <c r="F271" t="n">
-        <v>380.9334</v>
+        <v>1823.5715</v>
       </c>
       <c r="G271" t="n">
-        <v>48.05999999999999</v>
+        <v>48.06833333333332</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,21 +8246,24 @@
         <v>48.2</v>
       </c>
       <c r="C272" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D272" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E272" t="n">
         <v>48.2</v>
       </c>
       <c r="F272" t="n">
-        <v>1801.6379</v>
+        <v>380.9334</v>
       </c>
       <c r="G272" t="n">
-        <v>48.05499999999999</v>
+        <v>48.05999999999999</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,7 +8272,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C273" t="n">
         <v>48.3</v>
@@ -7463,15 +8281,18 @@
         <v>48.3</v>
       </c>
       <c r="E273" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F273" t="n">
-        <v>25238.9948</v>
+        <v>1801.6379</v>
       </c>
       <c r="G273" t="n">
-        <v>48.05333333333333</v>
+        <v>48.05499999999999</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="D274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F274" t="n">
-        <v>335.1372</v>
+        <v>25238.9948</v>
       </c>
       <c r="G274" t="n">
-        <v>48.05833333333333</v>
+        <v>48.05333333333333</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7518,12 +8342,15 @@
         <v>48.4</v>
       </c>
       <c r="F275" t="n">
-        <v>1351.0279</v>
+        <v>335.1372</v>
       </c>
       <c r="G275" t="n">
-        <v>48.05666666666666</v>
+        <v>48.05833333333333</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C276" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D276" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E276" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F276" t="n">
-        <v>3217.3242</v>
+        <v>1351.0279</v>
       </c>
       <c r="G276" t="n">
-        <v>48.06333333333334</v>
+        <v>48.05666666666666</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7561,21 +8391,24 @@
         <v>48.5</v>
       </c>
       <c r="C277" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D277" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="E277" t="n">
         <v>48.5</v>
       </c>
       <c r="F277" t="n">
-        <v>12912.1302</v>
+        <v>3217.3242</v>
       </c>
       <c r="G277" t="n">
-        <v>48.065</v>
+        <v>48.06333333333334</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7587,21 +8420,24 @@
         <v>48.5</v>
       </c>
       <c r="C278" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D278" t="n">
         <v>48.5</v>
       </c>
       <c r="E278" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F278" t="n">
-        <v>1511.3404</v>
+        <v>12912.1302</v>
       </c>
       <c r="G278" t="n">
         <v>48.065</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,24 +8446,27 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C279" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="D279" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E279" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F279" t="n">
-        <v>21376.0508</v>
+        <v>1511.3404</v>
       </c>
       <c r="G279" t="n">
         <v>48.065</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C280" t="n">
         <v>48.2</v>
       </c>
-      <c r="C280" t="n">
-        <v>48.4</v>
-      </c>
       <c r="D280" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E280" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F280" t="n">
-        <v>41109.0467</v>
+        <v>21376.0508</v>
       </c>
       <c r="G280" t="n">
-        <v>48.06666666666667</v>
+        <v>48.065</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7665,21 +8507,24 @@
         <v>48.2</v>
       </c>
       <c r="C281" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="D281" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E281" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F281" t="n">
-        <v>26526.9565</v>
+        <v>41109.0467</v>
       </c>
       <c r="G281" t="n">
         <v>48.06666666666667</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,24 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C282" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="D282" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="E282" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F282" t="n">
-        <v>1434.7693</v>
+        <v>26526.9565</v>
       </c>
       <c r="G282" t="n">
-        <v>48.06333333333334</v>
+        <v>48.06666666666667</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C283" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="D283" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="E283" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F283" t="n">
-        <v>8914.375577430001</v>
+        <v>1434.7693</v>
       </c>
       <c r="G283" t="n">
-        <v>48.06500000000001</v>
+        <v>48.06333333333334</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7740,24 +8591,27 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C284" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="D284" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E284" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F284" t="n">
-        <v>606</v>
+        <v>8914.375577430001</v>
       </c>
       <c r="G284" t="n">
-        <v>48.06166666666667</v>
+        <v>48.06500000000001</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7778,12 +8632,15 @@
         <v>48.1</v>
       </c>
       <c r="F285" t="n">
-        <v>4298.3392</v>
+        <v>606</v>
       </c>
       <c r="G285" t="n">
         <v>48.06166666666667</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,12 +8661,15 @@
         <v>48.1</v>
       </c>
       <c r="F286" t="n">
-        <v>2962.227</v>
+        <v>4298.3392</v>
       </c>
       <c r="G286" t="n">
-        <v>48.06666666666667</v>
+        <v>48.06166666666667</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7830,12 +8690,15 @@
         <v>48.1</v>
       </c>
       <c r="F287" t="n">
-        <v>204.7233</v>
+        <v>2962.227</v>
       </c>
       <c r="G287" t="n">
-        <v>48.07</v>
+        <v>48.06666666666667</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7847,21 +8710,24 @@
         <v>48.1</v>
       </c>
       <c r="C288" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D288" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E288" t="n">
         <v>48.1</v>
       </c>
       <c r="F288" t="n">
-        <v>15994.3008</v>
+        <v>204.7233</v>
       </c>
       <c r="G288" t="n">
         <v>48.07</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7870,24 +8736,27 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C289" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D289" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E289" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F289" t="n">
-        <v>27131.3005</v>
+        <v>15994.3008</v>
       </c>
       <c r="G289" t="n">
-        <v>48.06833333333334</v>
+        <v>48.07</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7908,12 +8777,15 @@
         <v>48</v>
       </c>
       <c r="F290" t="n">
-        <v>53723.1824</v>
+        <v>27131.3005</v>
       </c>
       <c r="G290" t="n">
-        <v>48.07166666666667</v>
+        <v>48.06833333333334</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,12 +8806,15 @@
         <v>48</v>
       </c>
       <c r="F291" t="n">
-        <v>2786.0502</v>
+        <v>53723.1824</v>
       </c>
       <c r="G291" t="n">
-        <v>48.07333333333333</v>
+        <v>48.07166666666667</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7951,21 +8826,24 @@
         <v>48</v>
       </c>
       <c r="C292" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="D292" t="n">
         <v>48</v>
       </c>
       <c r="E292" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="F292" t="n">
-        <v>49580</v>
+        <v>2786.0502</v>
       </c>
       <c r="G292" t="n">
-        <v>48.06833333333332</v>
+        <v>48.07333333333333</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7974,24 +8852,27 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="C293" t="n">
         <v>47.7</v>
       </c>
       <c r="D293" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="E293" t="n">
         <v>47.7</v>
       </c>
       <c r="F293" t="n">
-        <v>19554</v>
+        <v>49580</v>
       </c>
       <c r="G293" t="n">
-        <v>48.06166666666665</v>
+        <v>48.06833333333332</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8003,21 +8884,24 @@
         <v>47.7</v>
       </c>
       <c r="C294" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D294" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="E294" t="n">
         <v>47.7</v>
       </c>
       <c r="F294" t="n">
-        <v>6614.154</v>
+        <v>19554</v>
       </c>
       <c r="G294" t="n">
-        <v>48.05999999999999</v>
+        <v>48.06166666666665</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8029,21 +8913,24 @@
         <v>47.7</v>
       </c>
       <c r="C295" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D295" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="E295" t="n">
         <v>47.7</v>
       </c>
       <c r="F295" t="n">
-        <v>6244.9314</v>
+        <v>6614.154</v>
       </c>
       <c r="G295" t="n">
-        <v>48.05499999999999</v>
+        <v>48.05999999999999</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,24 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="C296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="E296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="F296" t="n">
-        <v>1115.3652</v>
+        <v>6244.9314</v>
       </c>
       <c r="G296" t="n">
-        <v>48.05333333333332</v>
+        <v>48.05499999999999</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8090,12 +8980,15 @@
         <v>47.9</v>
       </c>
       <c r="F297" t="n">
-        <v>27.1189</v>
+        <v>1115.3652</v>
       </c>
       <c r="G297" t="n">
-        <v>48.05666666666666</v>
+        <v>48.05333333333332</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8116,12 +9009,15 @@
         <v>47.9</v>
       </c>
       <c r="F298" t="n">
-        <v>295.1043</v>
+        <v>27.1189</v>
       </c>
       <c r="G298" t="n">
-        <v>48.05833333333332</v>
+        <v>48.05666666666666</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8142,12 +9038,15 @@
         <v>47.9</v>
       </c>
       <c r="F299" t="n">
-        <v>73.7787</v>
+        <v>295.1043</v>
       </c>
       <c r="G299" t="n">
         <v>48.05833333333332</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8168,532 +9067,15 @@
         <v>47.9</v>
       </c>
       <c r="F300" t="n">
-        <v>24.5929</v>
+        <v>73.7787</v>
       </c>
       <c r="G300" t="n">
-        <v>48.06166666666666</v>
+        <v>48.05833333333332</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>48</v>
-      </c>
-      <c r="C301" t="n">
-        <v>48</v>
-      </c>
-      <c r="D301" t="n">
-        <v>48</v>
-      </c>
-      <c r="E301" t="n">
-        <v>48</v>
-      </c>
-      <c r="F301" t="n">
-        <v>976.5916</v>
-      </c>
-      <c r="G301" t="n">
-        <v>48.06333333333333</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C302" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D302" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E302" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F302" t="n">
-        <v>32900.7831</v>
-      </c>
-      <c r="G302" t="n">
-        <v>48.06499999999999</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>48</v>
-      </c>
-      <c r="C303" t="n">
-        <v>48</v>
-      </c>
-      <c r="D303" t="n">
-        <v>48</v>
-      </c>
-      <c r="E303" t="n">
-        <v>48</v>
-      </c>
-      <c r="F303" t="n">
-        <v>278.9791</v>
-      </c>
-      <c r="G303" t="n">
-        <v>48.06833333333332</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>48</v>
-      </c>
-      <c r="C304" t="n">
-        <v>48</v>
-      </c>
-      <c r="D304" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E304" t="n">
-        <v>48</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1505.1548</v>
-      </c>
-      <c r="G304" t="n">
-        <v>48.06999999999999</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C305" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D305" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E305" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F305" t="n">
-        <v>549.3423</v>
-      </c>
-      <c r="G305" t="n">
-        <v>48.06833333333332</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>48</v>
-      </c>
-      <c r="C306" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D306" t="n">
-        <v>48</v>
-      </c>
-      <c r="E306" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1587.1057</v>
-      </c>
-      <c r="G306" t="n">
-        <v>48.06666666666666</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>48</v>
-      </c>
-      <c r="C307" t="n">
-        <v>48</v>
-      </c>
-      <c r="D307" t="n">
-        <v>48</v>
-      </c>
-      <c r="E307" t="n">
-        <v>48</v>
-      </c>
-      <c r="F307" t="n">
-        <v>879.3686</v>
-      </c>
-      <c r="G307" t="n">
-        <v>48.06666666666666</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>48</v>
-      </c>
-      <c r="C308" t="n">
-        <v>48</v>
-      </c>
-      <c r="D308" t="n">
-        <v>48</v>
-      </c>
-      <c r="E308" t="n">
-        <v>48</v>
-      </c>
-      <c r="F308" t="n">
-        <v>1027.9166</v>
-      </c>
-      <c r="G308" t="n">
-        <v>48.06333333333333</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>48</v>
-      </c>
-      <c r="C309" t="n">
-        <v>48</v>
-      </c>
-      <c r="D309" t="n">
-        <v>48</v>
-      </c>
-      <c r="E309" t="n">
-        <v>48</v>
-      </c>
-      <c r="F309" t="n">
-        <v>859.7134</v>
-      </c>
-      <c r="G309" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>48</v>
-      </c>
-      <c r="C310" t="n">
-        <v>48</v>
-      </c>
-      <c r="D310" t="n">
-        <v>48</v>
-      </c>
-      <c r="E310" t="n">
-        <v>48</v>
-      </c>
-      <c r="F310" t="n">
-        <v>736.854</v>
-      </c>
-      <c r="G310" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>48</v>
-      </c>
-      <c r="C311" t="n">
-        <v>48</v>
-      </c>
-      <c r="D311" t="n">
-        <v>48</v>
-      </c>
-      <c r="E311" t="n">
-        <v>48</v>
-      </c>
-      <c r="F311" t="n">
-        <v>1013.75</v>
-      </c>
-      <c r="G311" t="n">
-        <v>48.05833333333333</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C312" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D312" t="n">
-        <v>48</v>
-      </c>
-      <c r="E312" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F312" t="n">
-        <v>14466.7156</v>
-      </c>
-      <c r="G312" t="n">
-        <v>48.05333333333333</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C313" t="n">
-        <v>48</v>
-      </c>
-      <c r="D313" t="n">
-        <v>48</v>
-      </c>
-      <c r="E313" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F313" t="n">
-        <v>178.0371</v>
-      </c>
-      <c r="G313" t="n">
-        <v>48.05499999999999</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C314" t="n">
-        <v>48</v>
-      </c>
-      <c r="D314" t="n">
-        <v>48</v>
-      </c>
-      <c r="E314" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F314" t="n">
-        <v>640.8762152</v>
-      </c>
-      <c r="G314" t="n">
-        <v>48.05666666666666</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C315" t="n">
-        <v>48</v>
-      </c>
-      <c r="D315" t="n">
-        <v>48</v>
-      </c>
-      <c r="E315" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F315" t="n">
-        <v>15778.0535</v>
-      </c>
-      <c r="G315" t="n">
-        <v>48.05666666666666</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C316" t="n">
-        <v>48</v>
-      </c>
-      <c r="D316" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E316" t="n">
-        <v>48</v>
-      </c>
-      <c r="F316" t="n">
-        <v>710.3822</v>
-      </c>
-      <c r="G316" t="n">
-        <v>48.05666666666666</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>48</v>
-      </c>
-      <c r="C317" t="n">
-        <v>48</v>
-      </c>
-      <c r="D317" t="n">
-        <v>48</v>
-      </c>
-      <c r="E317" t="n">
-        <v>48</v>
-      </c>
-      <c r="F317" t="n">
-        <v>541.2291</v>
-      </c>
-      <c r="G317" t="n">
-        <v>48.05666666666666</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>48</v>
-      </c>
-      <c r="C318" t="n">
-        <v>48</v>
-      </c>
-      <c r="D318" t="n">
-        <v>48</v>
-      </c>
-      <c r="E318" t="n">
-        <v>48</v>
-      </c>
-      <c r="F318" t="n">
-        <v>682.3332</v>
-      </c>
-      <c r="G318" t="n">
-        <v>48.05833333333332</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>48</v>
-      </c>
-      <c r="C319" t="n">
-        <v>48</v>
-      </c>
-      <c r="D319" t="n">
-        <v>48</v>
-      </c>
-      <c r="E319" t="n">
-        <v>48</v>
-      </c>
-      <c r="F319" t="n">
-        <v>212.7916</v>
-      </c>
-      <c r="G319" t="n">
-        <v>48.05833333333332</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>48</v>
-      </c>
-      <c r="C320" t="n">
-        <v>48</v>
-      </c>
-      <c r="D320" t="n">
-        <v>48</v>
-      </c>
-      <c r="E320" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F320" t="n">
-        <v>2212.4658</v>
-      </c>
-      <c r="G320" t="n">
-        <v>48.05833333333332</v>
-      </c>
-      <c r="H320" t="n">
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
